--- a/local/public/uploads/promotion_code.xlsx
+++ b/local/public/uploads/promotion_code.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tee\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tee\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BC0E0D-5200-480F-999E-9B23CA7CB744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73592F73-F63D-45C9-953D-6926BA16A38C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{93887CC2-1406-46A1-95F1-7AA27851740A}"/>
+    <workbookView minimized="1" xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9072" xr2:uid="{93887CC2-1406-46A1-95F1-7AA27851740A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F965FCB7-947C-411C-B4BD-A062F9ED02F7}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
